--- a/field_scale/field_data/полевые данные общая/агрохимия 2019.xlsx
+++ b/field_scale/field_data/полевые данные общая/агрохимия 2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH_WORK\our_data\Полевые данные 2019\Ставропольский край\агрохимия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\field_scale\field_data\полевые данные общая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183BBF1-2519-4515-907A-56F947B890CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6213DD-AC99-4F78-9DAA-5C5A3B7D85EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1771E684-0373-40DA-BA70-0A60AFC2A7C0}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>индекс</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>0.22</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>1.7689</t>
   </si>
   <si>
-    <t>pH_солевой_вытяжки</t>
-  </si>
-  <si>
-    <t>pH_водной_вытяжки</t>
-  </si>
-  <si>
     <t>ПП</t>
   </si>
   <si>
@@ -240,19 +228,31 @@
     <t>тип_обработки</t>
   </si>
   <si>
-    <t>М.д._карбонатов_(по_Козловскому):CO2</t>
-  </si>
-  <si>
     <t>слепой_карбонаты</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>10-20</t>
+  </si>
+  <si>
+    <t>рН солевой вытяжки, ед. рН</t>
+  </si>
+  <si>
+    <t>рН водной вытяжки, ед. рН</t>
+  </si>
+  <si>
+    <t>Фосфор (подвижная форма), мг/кг</t>
+  </si>
+  <si>
+    <t>Калий (подвижная форма), млн-1</t>
+  </si>
+  <si>
+    <t>Общий азот, %</t>
+  </si>
+  <si>
+    <t>Общий углерод, %</t>
+  </si>
+  <si>
+    <t>Массовая доля общего содержания карбонатов (по Козловскому), % (CO2)</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +285,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -359,7 +367,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +385,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,6 +398,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,12 +725,13 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B29"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
@@ -731,51 +742,51 @@
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="78" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -786,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -803,25 +814,25 @@
       <c r="H2" s="2">
         <v>663.63</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.97</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="23">
+      <c r="K2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="21">
         <f>(I2*12)/44</f>
         <v>0.26454545454545458</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <f>L2-M2</f>
         <v>1.8807545454545456</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <f>N2* 1.724</f>
         <v>3.2424208363636366</v>
       </c>
@@ -834,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -851,25 +862,25 @@
       <c r="H3" s="2">
         <v>235.97</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>1.06</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="21">
         <f t="shared" ref="M3:M29" si="0">(I3*12)/44</f>
         <v>0.28909090909090912</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <f t="shared" ref="N3:N29" si="1">L3-M3</f>
         <v>1.369409090909091</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <f t="shared" ref="O3:O29" si="2">N3* 1.724</f>
         <v>2.3608612727272731</v>
       </c>
@@ -882,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -899,25 +910,25 @@
       <c r="H4" s="2">
         <v>291.45</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>1.06</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>0.28909090909090912</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <f t="shared" si="1"/>
         <v>1.4390090909090909</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <f t="shared" si="2"/>
         <v>2.4808516727272725</v>
       </c>
@@ -930,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -947,27 +958,27 @@
       <c r="H5" s="2">
         <v>530.54</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>1.06</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>1.06</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="K5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
         <v>0.28909090909090912</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="21">
         <f t="shared" si="1"/>
         <v>1.5342090909090909</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <f t="shared" si="2"/>
         <v>2.6449764727272727</v>
       </c>
@@ -980,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -997,25 +1008,25 @@
       <c r="H6" s="2">
         <v>276.83999999999997</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="K6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <f t="shared" si="1"/>
         <v>1.4539909090909089</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="21">
         <f t="shared" si="2"/>
         <v>2.5066803272727269</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -1045,25 +1056,25 @@
       <c r="H7" s="2">
         <v>684.97</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="K7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <f t="shared" si="1"/>
         <v>2.410690909090909</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="21">
         <f t="shared" si="2"/>
         <v>4.1560311272727271</v>
       </c>
@@ -1076,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1093,25 +1104,25 @@
       <c r="H8" s="2">
         <v>227.31</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="23">
+      <c r="K8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="21">
         <f t="shared" si="1"/>
         <v>1.398690909090909</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <f t="shared" si="2"/>
         <v>2.411343127272727</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -1141,25 +1152,25 @@
       <c r="H9" s="2">
         <v>326.73</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="K9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="21">
         <f t="shared" si="1"/>
         <v>1.3278909090909092</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="21">
         <f t="shared" si="2"/>
         <v>2.2892839272727277</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1189,25 +1200,25 @@
       <c r="H10" s="2">
         <v>308.89</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="K10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="21">
         <f t="shared" si="1"/>
         <v>1.457390909090909</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="21">
         <f t="shared" si="2"/>
         <v>2.5125419272727272</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -1237,25 +1248,25 @@
       <c r="H11" s="2">
         <v>272.57</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>2.02</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="23">
+      <c r="K11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="21">
         <f t="shared" si="0"/>
         <v>0.5509090909090909</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="21">
         <f t="shared" si="1"/>
         <v>1.4343909090909093</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="21">
         <f t="shared" si="2"/>
         <v>2.4728899272727274</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1285,25 +1296,25 @@
       <c r="H12" s="2">
         <v>266.27999999999997</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>2.11</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="K12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="21">
         <f t="shared" si="0"/>
         <v>0.57545454545454544</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="21">
         <f t="shared" si="1"/>
         <v>1.3464454545454545</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <f t="shared" si="2"/>
         <v>2.3212719636363635</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
@@ -1333,25 +1344,25 @@
       <c r="H13" s="2">
         <v>370.76</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>1.41</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="23">
+      <c r="K13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="21">
         <f t="shared" si="0"/>
         <v>0.38454545454545452</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="21">
         <f t="shared" si="1"/>
         <v>1.3090545454545455</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <f t="shared" si="2"/>
         <v>2.2568100363636363</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -1381,27 +1392,27 @@
       <c r="H14" s="2">
         <v>239.6</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>1.67</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>1.85</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="23">
+      <c r="K14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="21">
         <f t="shared" si="0"/>
         <v>0.45545454545454545</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="21">
         <f t="shared" si="1"/>
         <v>1.0597454545454545</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="21">
         <f t="shared" si="2"/>
         <v>1.8270011636363637</v>
       </c>
@@ -1414,42 +1425,42 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>7.48</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>8.49</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <v>21.2</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>305</v>
       </c>
       <c r="I15" s="1">
         <v>1.23</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="23">
+      <c r="K15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="21">
         <f t="shared" si="0"/>
         <v>0.33545454545454545</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="21">
         <f t="shared" si="1"/>
         <v>1.4300454545454546</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="21">
         <f t="shared" si="2"/>
         <v>2.4653983636363637</v>
       </c>
@@ -1458,11 +1469,11 @@
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>73</v>
+      <c r="B16" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>17</v>
@@ -1479,25 +1490,25 @@
       <c r="H16" s="2">
         <v>277.86</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>1.32</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="K16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="21">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="21">
         <f t="shared" si="1"/>
         <v>1.3380999999999998</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="21">
         <f t="shared" si="2"/>
         <v>2.3068843999999995</v>
       </c>
@@ -1506,11 +1517,11 @@
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>73</v>
+      <c r="B17" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1527,25 +1538,25 @@
       <c r="H17" s="2">
         <v>245.77</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>0.97</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="23">
+      <c r="K17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="21">
         <f t="shared" si="0"/>
         <v>0.26454545454545458</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="21">
         <f t="shared" si="1"/>
         <v>1.4103545454545454</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="21">
         <f t="shared" si="2"/>
         <v>2.4314512363636362</v>
       </c>
@@ -1554,11 +1565,11 @@
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>73</v>
+      <c r="B18" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
@@ -1575,25 +1586,25 @@
       <c r="H18" s="2">
         <v>256.23</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="23">
+      <c r="K18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="21">
         <f t="shared" si="1"/>
         <v>1.3650909090909091</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="21">
         <f t="shared" si="2"/>
         <v>2.3534167272727271</v>
       </c>
@@ -1602,11 +1613,11 @@
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>73</v>
+      <c r="B19" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1623,25 +1634,25 @@
       <c r="H19" s="2">
         <v>343.81</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="23">
+      <c r="K19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="21">
         <f t="shared" si="1"/>
         <v>1.3919909090909091</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <f t="shared" si="2"/>
         <v>2.3997923272727273</v>
       </c>
@@ -1650,11 +1661,11 @@
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>73</v>
+      <c r="B20" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
@@ -1671,25 +1682,25 @@
       <c r="H20" s="2">
         <v>312.72000000000003</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>1.5</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="K20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="21">
         <f t="shared" si="0"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="21">
         <f t="shared" si="1"/>
         <v>1.4492090909090909</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="21">
         <f t="shared" si="2"/>
         <v>2.4984364727272728</v>
       </c>
@@ -1698,11 +1709,11 @@
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>73</v>
+      <c r="B21" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
@@ -1719,25 +1730,25 @@
       <c r="H21" s="2">
         <v>528.47</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>1.23</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="23">
+      <c r="K21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="21">
         <f t="shared" si="0"/>
         <v>0.33545454545454545</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="21">
         <f t="shared" si="1"/>
         <v>1.9046454545454545</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="21">
         <f t="shared" si="2"/>
         <v>3.2836087636363636</v>
       </c>
@@ -1746,11 +1757,11 @@
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>73</v>
+      <c r="B22" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
@@ -1767,25 +1778,25 @@
       <c r="H22" s="2">
         <v>221.98</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="23">
+      <c r="K22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="21">
         <f t="shared" si="1"/>
         <v>1.3621909090909092</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="21">
         <f t="shared" si="2"/>
         <v>2.3484171272727274</v>
       </c>
@@ -1794,11 +1805,11 @@
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>73</v>
+      <c r="B23" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -1815,25 +1826,25 @@
       <c r="H23" s="2">
         <v>253.07</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>1.1399999999999999</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="K23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="21">
         <f t="shared" si="0"/>
         <v>0.31090909090909091</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="21">
         <f t="shared" si="1"/>
         <v>1.352590909090909</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="21">
         <f t="shared" si="2"/>
         <v>2.3318667272727271</v>
       </c>
@@ -1842,11 +1853,11 @@
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>73</v>
+      <c r="B24" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -1863,25 +1874,25 @@
       <c r="H24" s="2">
         <v>351</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <v>1.23</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="23">
+      <c r="K24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="21">
         <f t="shared" si="0"/>
         <v>0.33545454545454545</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="21">
         <f t="shared" si="1"/>
         <v>1.4691454545454545</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="21">
         <f t="shared" si="2"/>
         <v>2.5328067636363634</v>
       </c>
@@ -1890,11 +1901,11 @@
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>73</v>
+      <c r="B25" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
@@ -1911,25 +1922,25 @@
       <c r="H25" s="2">
         <v>235.56</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>2.46</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="K25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="21">
         <f t="shared" si="0"/>
         <v>0.6709090909090909</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="21">
         <f t="shared" si="1"/>
         <v>1.2899909090909092</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="21">
         <f t="shared" si="2"/>
         <v>2.2239443272727275</v>
       </c>
@@ -1938,11 +1949,11 @@
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>73</v>
+      <c r="B26" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -1959,25 +1970,25 @@
       <c r="H26" s="2">
         <v>206.6</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>2.38</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="23">
+      <c r="K26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="21">
         <f t="shared" si="0"/>
         <v>0.64909090909090905</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="21">
         <f t="shared" si="1"/>
         <v>1.2518090909090911</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="21">
         <f t="shared" si="2"/>
         <v>2.1581188727272731</v>
       </c>
@@ -1986,11 +1997,11 @@
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>73</v>
+      <c r="B27" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
@@ -2007,25 +2018,25 @@
       <c r="H27" s="2">
         <v>446.89</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>1.23</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="23">
+      <c r="K27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="21">
         <f t="shared" si="0"/>
         <v>0.33545454545454545</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="21">
         <f t="shared" si="1"/>
         <v>1.4305454545454546</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="21">
         <f t="shared" si="2"/>
         <v>2.4662603636363638</v>
       </c>
@@ -2034,11 +2045,11 @@
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>73</v>
+      <c r="B28" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>17</v>
@@ -2055,160 +2066,160 @@
       <c r="H28" s="2">
         <v>224.64</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <v>2.02</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="23">
+      <c r="K28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="21">
         <f t="shared" si="0"/>
         <v>0.5509090909090909</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="21">
         <f t="shared" si="1"/>
         <v>1.0320909090909089</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="21">
         <f t="shared" si="2"/>
         <v>1.7793247272727271</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>7.42</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <v>8.5</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="20">
         <v>12.53</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="20">
         <v>339.53</v>
       </c>
       <c r="I29" s="1">
         <v>1.23</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="23">
+      <c r="K29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="21">
         <f t="shared" si="0"/>
         <v>0.33545454545454545</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="21">
         <f t="shared" si="1"/>
         <v>1.4334454545454545</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="21">
         <f t="shared" si="2"/>
         <v>2.4712599636363635</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
